--- a/QAlegend/src/test/resources/TestData.xlsx
+++ b/QAlegend/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashif\eclipse-workspace\QAlegend\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashif\git\QAlegend\QAlegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F012E-0702-45C0-AB12-D1F39C70CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61928AEF-F19C-4442-A3D7-230BD0507FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPageData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="AddUserData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -78,13 +77,16 @@
   </si>
   <si>
     <t>Kdhppoouuals.ght@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome XYZ,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +114,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,13 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4572A3-220A-439B-85CC-4CBCAEA62ED0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,6 +509,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3989227-8C70-4C17-9031-A04A5803D632}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +582,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/QAlegend/src/test/resources/TestData.xlsx
+++ b/QAlegend/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashif\git\QAlegend\QAlegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61928AEF-F19C-4442-A3D7-230BD0507FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BF9277-7450-4FE3-8AAB-4F8DF4906D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF3F7F5F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -149,7 +148,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,7 +465,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/QAlegend/src/test/resources/TestData.xlsx
+++ b/QAlegend/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashif\git\QAlegend\QAlegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BF9277-7450-4FE3-8AAB-4F8DF4906D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB0424-3E7E-4620-9EB2-E2D5AB882E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4572A3-220A-439B-85CC-4CBCAEA62ED0}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
